--- a/data/trans_orig/P14A33-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A33-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F21CDD7B-BF0B-4758-B1D9-2F5A6E8EC6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C361B82-7C0E-415A-8123-E1A8C20174E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E43752F1-A7C5-4657-B2A8-86B9A51B6748}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3AAAE23C-35DB-439C-9555-4C5979277627}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="60">
   <si>
     <t>Población que recibe medicación o terapia por esterilidad en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -114,13 +114,13 @@
     <t>25,61%</t>
   </si>
   <si>
-    <t>76,46%</t>
+    <t>83,15%</t>
   </si>
   <si>
     <t>74,39%</t>
   </si>
   <si>
-    <t>23,54%</t>
+    <t>16,85%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -156,43 +156,37 @@
     <t>19,65%</t>
   </si>
   <si>
-    <t>79,83%</t>
+    <t>80,35%</t>
   </si>
   <si>
     <t>22,12%</t>
   </si>
   <si>
-    <t>57,28%</t>
+    <t>56,23%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>42,72%</t>
+    <t>43,77%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -634,7 +628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCEC433-426F-4F5A-9C2C-210A2EE1B1A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9B03E4-4A2C-4B9B-B406-9E9194E34F22}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1977,10 +1971,10 @@
         <v>3832</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>17</v>
@@ -1992,10 +1986,10 @@
         <v>7185</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>17</v>
@@ -2007,13 +2001,13 @@
         <v>11016</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,7 +2063,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2093,7 +2087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756F0CD3-35B1-443C-BE7B-B6D1237B22F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4A7A62-5269-4724-9203-9D99BE663664}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2110,7 +2104,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3087,7 +3081,7 @@
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,7 +3129,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -3358,7 +3352,7 @@
         <v>1020</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>14</v>
@@ -3373,13 +3367,13 @@
         <v>1020</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3403,7 @@
         <v>1020</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>14</v>
@@ -3424,10 +3418,10 @@
         <v>3894</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>17</v>
@@ -3486,7 +3480,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A33-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A33-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C361B82-7C0E-415A-8123-E1A8C20174E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A4C0DA3-0956-42F2-B883-84FAB4BC18AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3AAAE23C-35DB-439C-9555-4C5979277627}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5231C6F0-23A3-4964-B534-7317FBFDC098}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="62">
   <si>
     <t>Población que recibe medicación o terapia por esterilidad en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -114,13 +114,13 @@
     <t>25,61%</t>
   </si>
   <si>
-    <t>83,15%</t>
+    <t>76,46%</t>
   </si>
   <si>
     <t>74,39%</t>
   </si>
   <si>
-    <t>16,85%</t>
+    <t>23,54%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -156,43 +156,49 @@
     <t>19,65%</t>
   </si>
   <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
     <t>80,35%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>20,17%</t>
   </si>
   <si>
     <t>77,88%</t>
   </si>
   <si>
-    <t>43,77%</t>
+    <t>44,31%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por esterilidad en 2015 (Tasa respuesta: 0,08%)</t>
+    <t>Población que recibe medicación o terapia por esterilidad en 2016 (Tasa respuesta: 0,08%)</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -628,7 +634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9B03E4-4A2C-4B9B-B406-9E9194E34F22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9696F975-E9B0-461E-B0C0-2488103B6010}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1971,10 +1977,10 @@
         <v>3832</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>17</v>
@@ -1986,10 +1992,10 @@
         <v>7185</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>17</v>
@@ -2001,13 +2007,13 @@
         <v>11016</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,7 +2069,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2093,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E4A7A62-5269-4724-9203-9D99BE663664}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D5AE776-7558-4B9D-B495-6A051D8C9BB5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2104,7 +2110,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3081,7 +3087,7 @@
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,7 +3135,7 @@
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -3352,7 +3358,7 @@
         <v>1020</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>14</v>
@@ -3367,13 +3373,13 @@
         <v>1020</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,7 +3409,7 @@
         <v>1020</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>14</v>
@@ -3418,10 +3424,10 @@
         <v>3894</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>17</v>
@@ -3480,7 +3486,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
